--- a/test/Контрольная работа. Эпитеты в поззии..xlsx
+++ b/test/Контрольная работа. Эпитеты в поззии..xlsx
@@ -9,18 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Кипящий" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="1379">
   <si>
     <t>Collocation</t>
   </si>
@@ -4151,6 +4155,12 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
   </si>
 </sst>
 </file>
@@ -4228,7 +4238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4253,6 +4263,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4268,6 +4285,5037 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Варя" refreshedDate="44891.505658217589" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="368">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="Кипящий"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Collocation" numFmtId="0">
+      <sharedItems containsBlank="1" count="116">
+        <s v="кровь"/>
+        <s v="волна"/>
+        <s v="страсть"/>
+        <s v="ТОПОНИМ"/>
+        <s v="ярость"/>
+        <s v="пена"/>
+        <s v="вал"/>
+        <s v="огонь"/>
+        <s v="струя"/>
+        <s v="вода"/>
+        <s v="пря"/>
+        <s v="ИМЯ"/>
+        <s v="юность"/>
+        <s v="младость"/>
+        <s v="стремленье"/>
+        <s v="море"/>
+        <s v="сонм"/>
+        <s v="ключ"/>
+        <s v="глубина"/>
+        <s v="вино"/>
+        <s v="кубок"/>
+        <s v="ад"/>
+        <s v="рой"/>
+        <s v="напиток"/>
+        <s v="полнота"/>
+        <s v="ток"/>
+        <s v="враг"/>
+        <s v="дух"/>
+        <s v="переход"/>
+        <s v="бой"/>
+        <s v="брань"/>
+        <s v="торжище"/>
+        <s v="сеча"/>
+        <s v="водопад"/>
+        <s v="бездна"/>
+        <s v="пучина"/>
+        <s v="свирепством"/>
+        <s v="народ"/>
+        <s v="сталь"/>
+        <s v="пропасть"/>
+        <s v="чаша"/>
+        <s v="внук"/>
+        <s v="юноша"/>
+        <s v="мед"/>
+        <s v="душа"/>
+        <s v="стремнина"/>
+        <s v="пунш"/>
+        <s v="лава"/>
+        <s v="ревность"/>
+        <s v="стакан"/>
+        <s v="восторг"/>
+        <s v="слеза"/>
+        <s v="влага"/>
+        <s v="стан"/>
+        <s v="ноздря"/>
+        <s v="бунт"/>
+        <s v="столица"/>
+        <s v="смола"/>
+        <s v="млеко"/>
+        <s v="яд"/>
+        <s v="река"/>
+        <s v="песнопенье"/>
+        <s v="гнев"/>
+        <s v="янтарь"/>
+        <s v="поток"/>
+        <s v="жизнь"/>
+        <s v="злоба"/>
+        <s v="битва"/>
+        <s v="сила"/>
+        <s v="изумруд"/>
+        <s v="потоп"/>
+        <s v="залив"/>
+        <s v="мысль"/>
+        <s v="воля"/>
+        <s v="гребень"/>
+        <s v="льдистость"/>
+        <s v="колос"/>
+        <s v="золото"/>
+        <s v="пыл"/>
+        <s v="кратер"/>
+        <s v="вулкан"/>
+        <s v="малахит"/>
+        <s v="гной"/>
+        <s v="злато"/>
+        <s v="молоко"/>
+        <s v="рыба"/>
+        <s v="радость"/>
+        <s v="Гольфштром"/>
+        <s v="запруда"/>
+        <s v="котел"/>
+        <s v="кивер"/>
+        <s v="венец"/>
+        <s v="домна"/>
+        <s v="пиво"/>
+        <s v="существо"/>
+        <s v="сердце"/>
+        <s v="бак"/>
+        <s v="водь"/>
+        <s v="улица"/>
+        <s v="заря"/>
+        <s v="небо"/>
+        <s v="чувственность"/>
+        <s v="солнце"/>
+        <s v="ель"/>
+        <s v="капля"/>
+        <s v="суп"/>
+        <s v="геенна"/>
+        <s v="шквал"/>
+        <s v="ливень"/>
+        <s v="мириада"/>
+        <s v="лето"/>
+        <s v="прядь"/>
+        <s v="ЧЕЛОВЕК"/>
+        <s v="сера"/>
+        <s v="жир"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Meaning" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="горячая жидкость"/>
+        <s v="бурлящая жидкость"/>
+        <s v="об эмоции"/>
+        <s v="о человеке"/>
+        <s v="деятельность"/>
+        <s v="блеск"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Methonymy" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="метонимия"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Left context" numFmtId="0">
+      <sharedItems containsBlank="1" count="236">
+        <s v="Не кровию земля"/>
+        <s v="за правду утвердилась, Что меж"/>
+        <s v="Поля,"/>
+        <s v="А всегда бодр, храбр, побеждать"/>
+        <s v="жарка бою Одни с усердием"/>
+        <s v="Когда ревут"/>
+        <s v="Уж скоро зашумит"/>
+        <s v="полках срацинских страх и горе,"/>
+        <s v="Се зри: их путь изобразует"/>
+        <m/>
+        <s v="ним встречаяся, героя пожалела; Валы"/>
+        <s v="Марс кровавый; Багреют вкруг судов"/>
+        <s v="честь; Нам кровь, текущая с"/>
+        <s v="воду вкруг судов, но кровь"/>
+        <s v="горячая любовь, Престань воспламенять мою"/>
+        <s v="в сомненье не решилась Пря,"/>
+        <s v="Шереметев, стать претящий, Голицын, мужеством"/>
+        <s v="укротяся вдруг, На место волн,"/>
+        <s v="к ране я устами прикасался;"/>
+        <s v="Да небо утвердит во юности"/>
+        <s v="любови, Какая царствовать должна в"/>
+        <s v="Тревожится"/>
+        <s v="Но чтоб сей юности"/>
+        <s v="солнца луч; Где ветры вечные"/>
+        <s v="кристалей громады, Иль волн златых"/>
+        <s v="О ты, Бландузский ключ"/>
+        <s v="Вы, реки быстрые,"/>
+        <s v="явить, На коем черна кровь"/>
+        <s v="Язвимой ветвями дерев, Текут ручьи"/>
+        <s v="самый малый чёлн Средь седых"/>
+        <s v="Разбавь хотя однажды"/>
+        <s v="кубок твой сапфирный, Звездами, перлами"/>
+        <s v="Все томится, все вздыхает; Кровь"/>
+        <s v="в грудях кремнистых гор, В"/>
+        <s v="в пепел обращенны, На кровь,"/>
+        <s v="ночь, твой одр ― гниенье, Покров ―"/>
+        <s v="сынов, С напитком пенным и"/>
+        <s v="прерублено острой секирой И во"/>
+        <s v="Внемлите: водопад ревет,"/>
+        <s v="резвости, слиявшись, вновь стремились В"/>
+        <s v="престань шуметь"/>
+        <s v="мрачных вод И пену волн,"/>
+        <s v="крутизны И долу роя глубины,"/>
+        <s v="густую, Ее, нещадно пролитую, Творит"/>
+        <s v="Рек враг,"/>
+        <s v="раздражит в нем дух, отмщением"/>
+        <s v="Друзья,"/>
+        <s v="В"/>
+        <s v="как в бурю лес, Людьми"/>
+        <s v="родства и крови узы В"/>
+        <s v="из рядов, и пал в"/>
+        <s v="треск щитов, и гром ударов,"/>
+        <s v="украшенных холмах, На градских торжищах,"/>
+        <s v="которых зрел Тебя, всегда в"/>
+        <s v="о камень; Яряся, океан изверг"/>
+        <s v="болтливых Вокруг накрытого стола, Стакан,"/>
+        <s v="табунами На шум студеных струй,"/>
+        <s v="Пиров веселых зритель, Не пьет"/>
+        <s v="камней по камням чрез бездны"/>
+        <s v="дерев вершины, И загорелися небес"/>
+        <s v="спокойный, величавый; Тебя, младый Ринальд,"/>
+        <s v="блеск; Дерзнул, внимая бездны плеск,"/>
+        <s v="На берег выброшен"/>
+        <s v="воздымает И черные холмы морских"/>
+        <s v="столпов, И пеной огненной с"/>
+        <s v="высоте И, став над бездною"/>
+        <s v="огнем; И бледные его ланиты"/>
+        <s v="и томленье, Души, господства жаждущей,"/>
+        <s v="Ревела буря… вдруг луной Иртыш"/>
+        <s v="на градских площадях Вкруг вас"/>
+        <s v="несемся быстро мы, И Сталь"/>
+        <s v="могущею рукой Отвлек от пропасти"/>
+        <s v="И к небу не летит"/>
+        <s v="могли слова вещать; Разлитый Эридан"/>
+        <s v="луч животворящий, Из чаши Гения"/>
+        <s v="Поседевший в битвах дед Завещал"/>
+        <s v="взывал К тебе, волнуемый моей"/>
+        <s v="судьбой насмешливой знаком. Надейтесь, юноши"/>
+        <s v="стучали И в них шипел"/>
+        <s v="свой век младой И изнывать"/>
+        <s v="благоговением дерзал я лобызать Фиал"/>
+        <s v="Преодолев"/>
+        <s v="гласом возопил, И пуншем нектарным,"/>
+        <s v="покоя Налей, налей в бокал"/>
+        <s v="дерзну ли об одном? Вели"/>
+        <s v="Жемчужною"/>
+        <s v="может, был я в заблужденье,"/>
+        <s v="то жизни гений Нам льет"/>
+        <s v="Без красавицы младой, Без"/>
+        <s v="Решась кокетку ненавидеть,"/>
+        <s v="укрощает Дикую радость души, пылкий,"/>
+        <s v="Как капля в бездне вод"/>
+        <s v="пленительных очей Посыпался как град"/>
+        <s v="преврати В увеселительную чашу, Вином"/>
+        <s v="сильный отважно плывет И брызжет"/>
+        <s v="ль стены далекого Китая, В"/>
+        <s v="Сегодня ― город, завтра ― волны,"/>
+        <s v="несется по морям, Борясь с"/>
+        <s v="беспечностию равной И крови он"/>
+        <s v="собой, Дым из ноздрей летит"/>
+        <s v="я стражду… то прилив"/>
+        <s v="вакхическую песнь, Рожденную за чашею"/>
+        <s v="кровлях, в окнах, у ворот"/>
+        <s v="летят Наши мстительные бомбы На"/>
+        <s v="они из юной груди Лились"/>
+        <s v="меня На стогны, в жизнь"/>
+        <s v="немую мглу, Стремглав низвергнуться в"/>
+        <s v="изведший нас древле В землю,"/>
+        <s v="Ты опасаешься, что страсти Вольют"/>
+        <s v="пустотою; Ты ждал бессонницы, страстей,"/>
+        <s v="хладных людей я вулканом дохну,"/>
+        <s v="Что бури вой и шум"/>
+        <s v="счастливый, И тайно и злобно"/>
+        <s v="сердца ветреных надежд? А ключ"/>
+        <s v="И тигра кожею покрыт, С"/>
+        <s v="закалила Дикой силы полноту, И"/>
+        <s v="Тем ― отрава злого зелья, Тем ―"/>
+        <s v="И гнев"/>
+        <s v="едою блюда золотые, И янтарем"/>
+        <s v="рать; и быстро Ее поток,"/>
+        <s v="Ходят волны, и звучит Над"/>
+        <s v="объятья, Вздох неги превратит в"/>
+        <s v="туман И ил смешается с"/>
+        <s v="волну, И беснуется он по"/>
+        <s v="кто может струей виноградной, Бурно ―"/>
+        <s v="новая роскошная природа, И жизнь"/>
+        <s v="По Музе гордой и несчастной,"/>
+        <s v="В битве,"/>
+        <s v="молодецких и буйных порыв, Сил,"/>
+        <s v="Но,"/>
+        <s v="Старый ключ прошиб гранит И над бездною висит, Весь"/>
+        <s v="глухих порывах Тяжелых смут, среди"/>
+        <s v="Песком пустынь, венцами гор, Морей"/>
+        <s v="одной руке подняв бокал с"/>
+        <s v="Над пучиною"/>
+        <s v="Смола"/>
+        <s v="нас, а все мимо Несется"/>
+        <s v="Ночь."/>
+        <s v="огонь, шипенье, Деревьев-факелов"/>
+        <s v="кинули бакан, И вот, среди"/>
+        <s v="молишься чистому счастию знанья, Мысли"/>
+        <s v="вместив, золотые края Неисчерпно-"/>
+        <s v="улицах шумных Начнутся неистовства сонмов"/>
+        <s v="призыв без ответа, Это море"/>
+        <s v="скал, вам, гребни волн седые,"/>
+        <s v="На струистой,"/>
+        <s v="своего, ― То от тебя ее"/>
+        <s v="Твой стих, что конь, в"/>
+        <s v="голубою стеной Там мерцал над"/>
+        <s v="переметной Лизнувший по морю колосьев"/>
+        <s v="И сыплет в море золотом"/>
+        <s v="грудь, Как громный вал в"/>
+        <s v="вал Его, сказавшего, увлек В"/>
+        <s v="Смоет кровь и пыль. Обливай"/>
+        <s v="как некий исполин, Зыбь рассекал"/>
+        <s v="по уши уйти в людской"/>
+        <s v="седые кипят, И над холодной,"/>
+        <s v="Да?» Графиня роняет уныло: «Любовь ―"/>
+        <s v="И снова полн"/>
+        <s v="других для нас мгновенный плен,"/>
+        <s v="и страх и муки, Дробя"/>
+        <s v="на песке, дождем прибитом, Шипя"/>
+        <s v="глас совьет, как свиток, небеса,"/>
+        <s v="И вновь ―"/>
+        <s v="осталось. Кратер вулкана раскрылся, изверглась"/>
+        <s v="Там, где"/>
+        <s v="Котлы"/>
+        <s v="проходят тенью синей По серебру"/>
+        <s v="многоплодные стада, За вожаком прорезывая"/>
+        <s v="слепящий, На морском Побережье вал,"/>
+        <s v="он таганы И котлы с"/>
+        <s v="плакать надо всем Слезами радости"/>
+        <s v="страницу в грозе мировой! Проснулось"/>
+        <s v="для меня, Звонкий, словно водопад"/>
+        <s v="Когда швыряет огонь"/>
+        <s v="В липкой тине столицы"/>
+        <s v="труп окаменелый, Его не шевельнет"/>
+        <s v="всю хлябь и водь, Смолой"/>
+        <s v="каждый в пламя горна брошен,"/>
+        <s v="И не ровен. Мы ― в"/>
+        <s v="Дробясь несчетностью звезд, Любовь ― в"/>
+        <s v="Не застывающей"/>
+        <s v="Ты под котел"/>
+        <s v="Взбесившуюся лошадь направляет, ― И средь"/>
+        <s v="Может быть, Песков египетских венец"/>
+        <s v="что может случиться: Из домны"/>
+        <s v="кругом Ковши, серебряные чаши С"/>
+        <s v="тьмой: Я вижу огненное море"/>
+        <s v="закружились Спицы ворота, как из"/>
+        <s v="Трактирщица с улыбкой мне выносит"/>
+        <s v="Мы, трудящие народы, В нас"/>
+        <s v="Обегая каменные груды, пеною"/>
+        <s v="кто на рассвете пил / волны"/>
+        <s v="на запад обращает, Над толпами,"/>
+        <s v="Но юность встает из"/>
+        <s v="ветер невских хладных вод. Борты"/>
+        <s v="все овцы тучны, На площадях"/>
+        <s v="камень Толщь зеленых хрусталей, О,"/>
+        <s v="взрывать, ― и шли / корабли / под"/>
+        <s v="отныне Сталью светлого клинка, Донеси"/>
+        <s v="Выносили нас кони глазастые Из"/>
+        <s v="кровельным откосом Гудит прибой чужих,"/>
+        <s v="На дне ушатов плещет широко"/>
+        <s v="девушек, О юношах с кровью"/>
+        <s v="И на штыках ―"/>
+        <s v="скулы тугие. Делим свой вкусно"/>
+        <s v="Я один. Пустота."/>
+        <s v="Но в ограниченности безграничья"/>
+        <s v="Вонзила свои водяные зрачки В"/>
+        <s v="по-прежнему тяжко, и смолы роняет"/>
+        <s v="Изнуряющий, сладостный плен мой,"/>
+        <s v="лужам прошлогодний экстракт; Муравьиные конусы,"/>
+        <s v="раковины, черви и кораллы Воде"/>
+        <s v="Дымящимся паром"/>
+        <s v="приподнять копье ― Так шлите юности"/>
+        <s v="В кромешных пучинах, в геенне"/>
+        <s v="Уже он в"/>
+        <s v="А солнце, /"/>
+        <s v="недалеких уже янычар И хлестала"/>
+        <s v="засвищет свинцовая вьюга И шквалом"/>
+        <s v="О, сколько памятей и слез невольных, Хоть не пролитых, но в груди"/>
+        <s v="Между нами ― поэзия, Этот ливень"/>
+        <s v="то было эхо смутное Живых,"/>
+        <s v="Июль сорок первого года,"/>
+        <s v="На две живых, на две"/>
+        <s v="Томленье озарив твое, Из тайников"/>
+        <s v="страсти мужской, Родилась Анадиомена Из"/>
+        <s v="во дни великих вод, кишмя"/>
+        <s v="Я был веселый и странный,"/>
+        <s v="Но море,"/>
+        <s v="уступит яви, Когда расстелется в"/>
+        <s v="От"/>
+        <s v="На рыбу, прыщущую жиром, В"/>
+        <s v="как Везувий, И жаждет струею"/>
+        <s v="(Я в гуще Смолы"/>
+        <s v="Сосо, страдать научиться И в"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Center" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Punct" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Right context" numFmtId="0">
+      <sharedItems containsBlank="1" count="239">
+        <s v="обагрилась, Но в радости струях"/>
+        <s v="волн Венера в свет родилась"/>
+        <s v="кровью Убитых человеков, Тела, в"/>
+        <s v="страсти ."/>
+        <s v="кровь прольют, Другие чрез моря"/>
+        <s v="волны, Богач трепещет на земли"/>
+        <s v="Флегетонт; Я мраком солнца свет"/>
+        <s v="ярость, казнь и смерть."/>
+        <s v="пеною вода; Не паки ль"/>
+        <s v="валы при устье брань подъемлют"/>
+        <s v="и бурные огни Умели пощадить"/>
+        <s v="струи."/>
+        <s v="вода огня не потушает, Свирепый"/>
+        <s v="струями, Феодорова тень, виясь над"/>
+        <s v="видят, И ужасы войны и"/>
+        <s v="кровь И нежным перестань ея"/>
+        <s v="меж полков!"/>
+        <s v="На стены готфски вверх идущ"/>
+        <s v="вскоре, Являет струйки как жемчуг"/>
+        <s v="крови ток, что с шумом"/>
+        <s v="И прелестей в соблазн вид"/>
+        <s v="крови, ― Но если вас она"/>
+        <s v="младость, И рушится мой сладкий"/>
+        <s v="Стремленье в благо обратить И"/>
+        <s v="море роют, Вода пускает гром"/>
+        <s v="сонм, Или горящие эфиры, Иль"/>
+        <s v="В блистаньи спорящий с стеклом"/>
+        <s v="глубины ― Кротчайшая вода, блестящим лавиринфом"/>
+        <s v="курится?"/>
+        <s v="крови На зелень влажныя земли"/>
+        <s v="волн."/>
+        <s v="вино Воды четвертой долей."/>
+        <s v="Да нектар твой небесный, сильный"/>
+        <s v="охладела, Радость жизни отлетела; Все"/>
+        <s v="адом безднах мрачных, Между стихий"/>
+        <s v="по полям."/>
+        <s v="рой червей!"/>
+        <s v="страсти обуздай, Смиренно песни сей"/>
+        <s v="Он радость в сердце льет"/>
+        <s v="воде разваренно, Ночью Богам в"/>
+        <s v="пеною граниты омывает И в"/>
+        <s v="полноте свирепыя реки; Терзая грудь"/>
+        <s v="волной: Пускай внимают все, что"/>
+        <s v="под рулями Их кораблей; &lt;тот"/>
+        <s v="реются в безвестность;"/>
+        <s v="током течь."/>
+        <s v="злым наветом: Под солнцем власть"/>
+        <s v="И изведет его в сражение"/>
+        <s v="кубок сей Вождям, сраженным в"/>
+        <s v="зыблется крови; От всех забыт"/>
+        <s v="переходы, Всходя до синевы небес"/>
+        <s v="как волкан, страстях, К ногам"/>
+        <s v="бое: Покойся, юноша!"/>
+        <s v="брань среди опустошенных сел И"/>
+        <s v="от народа, На самом прахе"/>
+        <s v="сече, Всегда под свистом стрел"/>
+        <s v="волнами Пловца на дикий брег"/>
+        <s v="пеной белой, И стук блестящего"/>
+        <s v="под землей, Где путник с"/>
+        <s v="Водопад, свергаяся со скал, Целебному"/>
+        <s v="вина Из чаши круговыя…"/>
+        <s v="Легкостью ног упреждал он и"/>
+        <s v="пучины."/>
+        <s v="как Ахилл, В любви, в"/>
+        <s v="свирепством богоборным, Изрыгнуть на Тебя"/>
+        <s v="волной, Пловец с усталости в"/>
+        <s v="вод С громовой тучею сливает"/>
+        <s v="волнами По камням прядают и"/>
+        <s v="Весь ужас бури осветил: Засеребрилися"/>
+        <s v="кровью налились; Ужасной бледностью покрыты"/>
+        <s v="стремленье И замыслов событие Несбыточных"/>
+        <s v="осребрился, И труп, извергнутый волной"/>
+        <s v="народу Вы хвалите в своих"/>
+        <s v="плененная собою, Дух немцев разжидив"/>
+        <s v="Я стал свободен… я спасен"/>
+        <s v="водопад!"/>
+        <s v="волнами Увлек дремучий лес и"/>
+        <s v="кубок сей Поэтам осужденным: Мы"/>
+        <s v="Он пил за здравие людей"/>
+        <s v="внукам Жажду воли и побед"/>
+        <s v="кровью, Как бы предчувствуя, что"/>
+        <s v="Летите: крылья вам даны; Для"/>
+        <s v="мед."/>
+        <s v="душой Под тяжким игом самовластья"/>
+        <s v="вод Нарзанны, ― И мнилось радостному"/>
+        <s v="стремнины, Где жаркая струя сквозь"/>
+        <s v="В минуту стол обрызган был"/>
+        <s v="вино! Как тихий ток воды"/>
+        <s v="вином Поднесть златую чашу». Он"/>
+        <s v="лавой, За валом низвергая вал"/>
+        <s v="ревностью горя; Но я в"/>
+        <s v="вино Скорбей и наслаждений."/>
+        <s v="стакана, Прелесть розы огневой, Блеск"/>
+        <s v="Ленский не хотел Пред поединком"/>
+        <s v="восторг."/>
+        <s v="Как в море легкая струя"/>
+        <s v="слез ручей; И сим слезам"/>
+        <s v="освяти, Да запивай уху да"/>
+        <s v="влагой."/>
+        <s v="ли Париж, туда ли наконец"/>
+        <s v="стан, утес безмолвный, И конь"/>
+        <s v="волнами; А я ― о бурях"/>
+        <s v="ключ, И ручеек златит дубравный"/>
+        <s v="Копыта искры льют струей, Глаза"/>
+        <s v="крови грудь стесняет, То смерти"/>
+        <m/>
+        <s v="ветреный народ, Богато убранный, одетый"/>
+        <s v="бунтом град."/>
+        <s v="струей; Когда туманом мир и"/>
+        <s v="душа в немую вечность ляжет"/>
+        <s v="столицы; Он дум божественных открыл"/>
+        <s v="смолу, Или во льду застыть"/>
+        <s v="млеком и медом?"/>
+        <s v="жгучий яд В его младенческую"/>
+        <s v="лавы, ― и дождался!"/>
+        <s v="лавой нахлыну; Средь водной равнины"/>
+        <s v="рек?"/>
+        <s v="ревность пылает…"/>
+        <s v="песнопенья? А слез, небесных слез"/>
+        <s v="чашей председает."/>
+        <s v="Ахилла Бою древнему явила Уязвимым"/>
+        <s v="вино; Тот блестящими глазами Смотрит"/>
+        <s v="в ней клокочет: Надежд отрадных"/>
+        <s v="в чашах блещет Вино; и"/>
+        <s v="истребленьем, Вдоль мирных берегов реки"/>
+        <s v="волнами Звонкий голос нереид."/>
+        <s v="рой проклятья Отнимет все ― и"/>
+        <s v="волнами, ― Какая ж мысль в"/>
+        <s v="пучинам."/>
+        <s v="и искристо ― хладной, Радость усилить"/>
+        <s v="и полная свобода Тебя невольно"/>
+        <s v="злобою безгласной!"/>
+        <s v="во все времена С кознями"/>
+        <s v="мятежным огнем."/>
+        <s v="жизненною силой, Он ее в"/>
+        <s v="волн, Случалось проводить в бушующих"/>
+        <s v="изумрудом."/>
+        <s v="влагой, В другой ― венок из"/>
+        <s v="Ходят волны ходенем, Проступают остриями"/>
+        <s v="жизнью надо жить, Все радости"/>
+        <s v="переполняет груди, Которых молоком ты"/>
+        <s v="потоп."/>
+        <s v="черное море Потопом уносится прочь"/>
+        <s v="дымный ад, И бури бешеной"/>
+        <s v="залива, Он прыгает и мечется"/>
+        <s v="и мудрости тихим вершинам."/>
+        <s v="волю."/>
+        <s v="Пиры и веселья народов безумных"/>
+        <s v="слез."/>
+        <s v="в своем безжизненном бою, Я"/>
+        <s v="волне Наши легкие, темные тени"/>
+        <s v="льдистости Не нужно ничего."/>
+        <s v="злобе Уздою сдержанный едва, И"/>
+        <s v="волной."/>
+        <s v="Поплыл, отеняя в душе беззаботной"/>
+        <s v="пене."/>
+        <s v="пламенем поток."/>
+        <s v="пылом. Начисто скреби Спину, грудь"/>
+        <s v="кратэра, ― Дабы порхнуть из мглы"/>
+        <s v="вал!"/>
+        <s v="пучиной Белые чайки визгливо кричат"/>
+        <s v="вулкан…» Затем предлагает мило Барону"/>
+        <s v="страсти, И снова жажду и"/>
+        <s v="золотом твой стих запечатлен."/>
+        <s v="волну."/>
+        <s v="малахитом, Выводят волны свой узор"/>
+        <s v="гной и кровь прольются, как"/>
+        <s v="златом гравий И в просинях"/>
+        <s v="лава. Огненный пепел и каменный"/>
+        <s v="волн взметнулася гряда, Она исчезла"/>
+        <s v="бездн ― крестильное нам лоно, Отчаянье"/>
+        <s v="валов."/>
+        <s v="пену, Что взбил в студеной"/>
+        <s v="Молоком."/>
+        <s v="рыбой, Выскочил из юрты светлой"/>
+        <s v="грозное море… Зови нас, свобода"/>
+        <s v="Словно гул растущего огня:"/>
+        <s v="И плавит камни огромный день"/>
+        <s v="ночные воды Опущен грузный лес"/>
+        <s v="Где Венера раскинула сети,"/>
+        <s v="жизни клич!"/>
+        <s v="восток Пролей на нашу плоть"/>
+        <s v="сталью опален, Кандальным звоном обострожен"/>
+        <s v="Гольфштроме крови. То и дело"/>
+        <s v="запруде И над нею ― к"/>
+        <s v="лавой Испеплены Конфуций, Шариат, Евангелье"/>
+        <s v="этот ― Сам подложил углей!"/>
+        <s v="киверов и шляп Немецкий выговор"/>
+        <s v="Венчает голову с космою черной"/>
+        <s v="прострется рука великана, Над шахтами"/>
+        <s v="пивом и вином."/>
+        <s v="веществом существ; Сижу в дыму"/>
+        <s v="Пены медленная выползала Цепь, наматываясь"/>
+        <s v="и золотое пиво С горячею"/>
+        <s v="сердца, Дышим праздником свободы, Как"/>
+        <s v="шумлив, он несет в бетонные"/>
+        <s v="йод и соль."/>
+        <s v="котлом, И голову свою приподымает"/>
+        <s v="котлов ― Она без изъяна и"/>
+        <s v="смолу вдыхают. Мечта всей жизни"/>
+        <s v="бак ― И у этой Лестницы"/>
+        <s v="вино И голос лиры ― неразлучны"/>
+        <s v="Арагва, ― Образ юности моей!"/>
+        <s v="водь, и жрали / матросов / рыбы"/>
+        <s v="сердце, Неуемное пока, До каспийского"/>
+        <s v="ада атак."/>
+        <s v="улиц, Сверкают сумасшедшие рекламы, ― В"/>
+        <s v="кобылье молоко, И пахнет вымя"/>
+        <s v="Как в гейзерах пар и"/>
+        <s v="заря, И на чалме цветет"/>
+        <s v="котел. Это ― мой брат, разделенный"/>
+        <s v="небо. Я один. Пустота."/>
+        <s v="чувственности столько льда,."/>
+        <s v="солнцем панель, Отпустила мне фунт"/>
+        <s v="ель, как липкая сволочь ― на"/>
+        <s v="капли свинцовой воды, ― греми по"/>
+        <s v="пивом, По припекам крапивы, крапивы"/>
+        <s v="отдали свой цвет."/>
+        <s v="супа Весь мир от тебя"/>
+        <s v="Благословение свое!"/>
+        <s v="геенне горит с лжепророком, И"/>
+        <s v="злое, Гуляет над Царским селом"/>
+        <s v="смолою, Обжигаясь сама и крича"/>
+        <s v="ворвется ко мне ― Священную волю"/>
+        <s v="О, сколько горечи и озлобленья"/>
+        <s v="мириад, Чьих рук касание минутное"/>
+        <s v="лето войны!"/>
+        <s v="пряди."/>
+        <s v="крови Встает иное бытие…"/>
+        <s v="пены морской."/>
+        <s v="и папоротников чешуйчатопокровных, во дни"/>
+        <s v="и ледяной, Готовый и к"/>
+        <s v="тяжко, Одну половину квадрата Отсекло"/>
+        <s v="лаве Пурпурная рассветная река."/>
+        <s v="от серы Мочи нет, Вот"/>
+        <s v="ввергнутую жир."/>
+        <s v="пролиться… )"/>
+        <s v="все пойму? )"/>
+        <s v="смоле прохлаждаться!"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="368">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="кипящи"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="кипящу"/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="кипящи"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="Кипяща"/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="Кипяща"/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="Кипящая"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="кипящими"/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="кипящу"/>
+    <m/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="кипящу"/>
+    <m/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="Кипяща"/>
+    <m/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="кипящий"/>
+    <s v=","/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="кипящей"/>
+    <s v="!"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="Кипяща"/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="22"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="кипяще"/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="25"/>
+    <s v="кипящий"/>
+    <s v=","/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="кипящи"/>
+    <m/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="Кипящая"/>
+    <m/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="29"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="31"/>
+    <s v="кипящ"/>
+    <s v=","/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="32"/>
+    <s v="Кипяща"/>
+    <m/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="33"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="34"/>
+    <s v="кипящу"/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="35"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="кипящи"/>
+    <m/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="кипящим"/>
+    <s v=","/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="37"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="38"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="39"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="кипящею"/>
+    <m/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="41"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="42"/>
+    <s v="кипящи"/>
+    <s v=","/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="43"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="44"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <s v="кипящий"/>
+    <s v=","/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="46"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="47"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="48"/>
+    <s v="кипящи"/>
+    <m/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="49"/>
+    <s v="кипящих"/>
+    <s v=","/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="50"/>
+    <s v="кипящем"/>
+    <m/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="51"/>
+    <s v="кипящу"/>
+    <m/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="52"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="53"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="54"/>
+    <s v="кипящими"/>
+    <m/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="56"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="57"/>
+    <s v="кипящего"/>
+    <m/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="58"/>
+    <s v="кипящи"/>
+    <s v=","/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="59"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="60"/>
+    <s v="кипящий"/>
+    <s v=","/>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="61"/>
+    <s v="кипящ"/>
+    <m/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="62"/>
+    <s v="кипящею"/>
+    <m/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="63"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="кипящими"/>
+    <m/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="65"/>
+    <s v="кипящей"/>
+    <s v=","/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="66"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="67"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="68"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="кипящему"/>
+    <m/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="70"/>
+    <s v="Кипящая"/>
+    <s v=","/>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="кипящей"/>
+    <s v=","/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="72"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="кипящими"/>
+    <m/>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="74"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="75"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="76"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="77"/>
+    <s v="кипящие"/>
+    <s v="!"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="78"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="79"/>
+    <s v="кипящею"/>
+    <m/>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="80"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="81"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="82"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="83"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="85"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="86"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="87"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="88"/>
+    <s v="кипящего"/>
+    <m/>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="89"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="90"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="91"/>
+    <s v="кипящих"/>
+    <s v=","/>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="92"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="93"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="94"/>
+    <s v="кипящею"/>
+    <m/>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="95"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="96"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="кипящими"/>
+    <m/>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="98"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="102"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="99"/>
+    <s v="кипящих"/>
+    <s v=","/>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="100"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="104"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="101"/>
+    <s v="кипящей"/>
+    <s v="."/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="102"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="106"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="103"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="107"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="104"/>
+    <s v="кипящею"/>
+    <m/>
+    <x v="108"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="Кипящая"/>
+    <m/>
+    <x v="109"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="105"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="110"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="106"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="111"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="107"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="112"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="108"/>
+    <s v="кипящий"/>
+    <s v=","/>
+    <x v="113"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="109"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="114"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="110"/>
+    <s v="кипящею"/>
+    <m/>
+    <x v="115"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="111"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="116"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="112"/>
+    <s v="Кипящая"/>
+    <m/>
+    <x v="117"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="118"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="114"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="119"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="115"/>
+    <s v="кипящего"/>
+    <m/>
+    <x v="120"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="116"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="121"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="117"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="122"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="118"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="123"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="119"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="124"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="120"/>
+    <s v="кипящими"/>
+    <m/>
+    <x v="125"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="121"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="126"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="122"/>
+    <s v="кипящими"/>
+    <m/>
+    <x v="127"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="123"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="128"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="124"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="129"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="125"/>
+    <s v="Кипящая"/>
+    <s v=","/>
+    <x v="130"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="126"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="131"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="127"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="132"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="128"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="133"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="129"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="134"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="130"/>
+    <s v="кипящий"/>
+    <s v="!"/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="131"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="135"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="132"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="136"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="133"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="137"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="134"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="138"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="139"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="135"/>
+    <s v="Кипящая"/>
+    <m/>
+    <x v="140"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="136"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="141"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="137"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="142"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="138"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="143"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="139"/>
+    <s v="кипящего"/>
+    <m/>
+    <x v="144"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="140"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="145"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="141"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="146"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="142"/>
+    <s v="кипящих"/>
+    <s v=","/>
+    <x v="147"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="143"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="148"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="144"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="149"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="145"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="150"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="146"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="151"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="147"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="152"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="148"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="153"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="149"/>
+    <s v="кипящих"/>
+    <s v=","/>
+    <x v="154"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="150"/>
+    <s v="кипящим"/>
+    <s v="."/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="151"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="155"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="152"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="156"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="153"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="157"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="154"/>
+    <s v="кипящего"/>
+    <m/>
+    <x v="158"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="155"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="159"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="156"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="160"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="157"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="161"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="158"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="162"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="159"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="163"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="160"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="164"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="161"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="165"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="162"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="166"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="163"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="167"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="164"/>
+    <s v="Кипящая"/>
+    <m/>
+    <x v="168"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="165"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="169"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="166"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="170"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="167"/>
+    <s v="кипящему"/>
+    <m/>
+    <x v="171"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="168"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="172"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="169"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="173"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="170"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="174"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="171"/>
+    <s v="кипящей"/>
+    <s v="."/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="172"/>
+    <s v="Кипящее"/>
+    <s v=","/>
+    <x v="175"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="173"/>
+    <s v="кипящий"/>
+    <s v=","/>
+    <x v="176"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="174"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="177"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="47"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="178"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="175"/>
+    <s v="кипящей"/>
+    <s v=","/>
+    <x v="179"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="176"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="180"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="177"/>
+    <s v="кипящею"/>
+    <m/>
+    <x v="181"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="178"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="182"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="179"/>
+    <s v="кипящем"/>
+    <m/>
+    <x v="183"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="180"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="184"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="181"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="185"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="182"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="186"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="183"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="187"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="184"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="188"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="185"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="189"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="186"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="190"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="187"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="191"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="188"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="192"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="189"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="193"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="190"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="194"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="191"/>
+    <s v="кипящею"/>
+    <m/>
+    <x v="195"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="192"/>
+    <s v="кипящей"/>
+    <s v="/"/>
+    <x v="196"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="193"/>
+    <s v="кипящими"/>
+    <m/>
+    <x v="197"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="194"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="198"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="195"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="199"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="200"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="196"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="201"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="197"/>
+    <s v="Кипящая"/>
+    <m/>
+    <x v="202"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="198"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="203"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="199"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="204"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="200"/>
+    <s v="кипящего"/>
+    <m/>
+    <x v="205"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="201"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="206"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="202"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="207"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="203"/>
+    <s v="кипящей"/>
+    <s v=","/>
+    <x v="208"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="204"/>
+    <s v="Кипящая"/>
+    <m/>
+    <x v="209"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="205"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="210"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="206"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="211"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="207"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="212"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="208"/>
+    <s v="кипящую"/>
+    <m/>
+    <x v="213"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="209"/>
+    <s v="Кипящая"/>
+    <m/>
+    <x v="214"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="210"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="215"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="211"/>
+    <s v="кипящие"/>
+    <m/>
+    <x v="216"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="212"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="217"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="213"/>
+    <s v="кипящего"/>
+    <m/>
+    <x v="218"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="214"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="219"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="215"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="171"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="216"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="220"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="217"/>
+    <s v="Кипящее"/>
+    <s v=","/>
+    <x v="221"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="218"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="222"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="219"/>
+    <s v="кипящим"/>
+    <m/>
+    <x v="223"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="220"/>
+    <s v="кипящих"/>
+    <s v=","/>
+    <x v="224"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="221"/>
+    <s v="кипящий"/>
+    <s v="."/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="222"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="225"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="223"/>
+    <s v="Кипящее"/>
+    <s v=","/>
+    <x v="226"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="224"/>
+    <s v="кипящих"/>
+    <m/>
+    <x v="227"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="225"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="228"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="226"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="229"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="227"/>
+    <s v="кипящих"/>
+    <s v=","/>
+    <x v="230"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="228"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="231"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="229"/>
+    <s v="Кипящее"/>
+    <m/>
+    <x v="232"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="230"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="233"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="231"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="234"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="232"/>
+    <s v="кипящий"/>
+    <m/>
+    <x v="235"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="233"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="236"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="234"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="237"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="235"/>
+    <s v="кипящей"/>
+    <m/>
+    <x v="238"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="105"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A144" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="117">
+        <item x="21"/>
+        <item x="96"/>
+        <item x="34"/>
+        <item x="67"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="55"/>
+        <item x="6"/>
+        <item x="91"/>
+        <item x="19"/>
+        <item x="52"/>
+        <item x="41"/>
+        <item x="9"/>
+        <item x="33"/>
+        <item x="97"/>
+        <item x="1"/>
+        <item x="73"/>
+        <item x="50"/>
+        <item x="26"/>
+        <item x="80"/>
+        <item x="106"/>
+        <item x="18"/>
+        <item x="62"/>
+        <item x="82"/>
+        <item x="87"/>
+        <item x="74"/>
+        <item x="92"/>
+        <item x="27"/>
+        <item x="44"/>
+        <item x="103"/>
+        <item x="65"/>
+        <item x="114"/>
+        <item x="71"/>
+        <item x="88"/>
+        <item x="99"/>
+        <item x="83"/>
+        <item x="66"/>
+        <item x="77"/>
+        <item x="69"/>
+        <item x="11"/>
+        <item x="104"/>
+        <item x="90"/>
+        <item x="17"/>
+        <item x="76"/>
+        <item x="89"/>
+        <item x="79"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="47"/>
+        <item x="110"/>
+        <item x="108"/>
+        <item x="75"/>
+        <item x="81"/>
+        <item x="43"/>
+        <item x="109"/>
+        <item x="13"/>
+        <item x="58"/>
+        <item x="84"/>
+        <item x="15"/>
+        <item x="72"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="100"/>
+        <item x="54"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="61"/>
+        <item x="93"/>
+        <item x="24"/>
+        <item x="64"/>
+        <item x="70"/>
+        <item x="39"/>
+        <item x="10"/>
+        <item x="111"/>
+        <item x="46"/>
+        <item x="35"/>
+        <item x="78"/>
+        <item x="86"/>
+        <item x="48"/>
+        <item x="60"/>
+        <item x="22"/>
+        <item x="85"/>
+        <item x="36"/>
+        <item x="113"/>
+        <item x="95"/>
+        <item x="32"/>
+        <item x="68"/>
+        <item x="51"/>
+        <item x="57"/>
+        <item x="102"/>
+        <item x="16"/>
+        <item x="49"/>
+        <item x="38"/>
+        <item x="53"/>
+        <item x="56"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="45"/>
+        <item x="8"/>
+        <item x="105"/>
+        <item x="94"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="40"/>
+        <item x="112"/>
+        <item x="101"/>
+        <item x="107"/>
+        <item x="12"/>
+        <item x="42"/>
+        <item x="59"/>
+        <item x="63"/>
+        <item x="4"/>
+        <item x="115"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item h="1" x="5"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="237">
+        <item x="234"/>
+        <item x="3"/>
+        <item x="217"/>
+        <item x="88"/>
+        <item x="98"/>
+        <item x="80"/>
+        <item x="61"/>
+        <item x="55"/>
+        <item x="47"/>
+        <item x="127"/>
+        <item x="33"/>
+        <item x="215"/>
+        <item x="175"/>
+        <item x="34"/>
+        <item x="15"/>
+        <item x="101"/>
+        <item x="152"/>
+        <item x="195"/>
+        <item x="183"/>
+        <item x="198"/>
+        <item x="76"/>
+        <item x="141"/>
+        <item x="38"/>
+        <item x="227"/>
+        <item x="13"/>
+        <item x="63"/>
+        <item x="123"/>
+        <item x="208"/>
+        <item x="196"/>
+        <item x="32"/>
+        <item x="177"/>
+        <item x="26"/>
+        <item x="200"/>
+        <item x="65"/>
+        <item x="162"/>
+        <item x="82"/>
+        <item x="131"/>
+        <item x="148"/>
+        <item x="14"/>
+        <item x="151"/>
+        <item x="43"/>
+        <item x="19"/>
+        <item x="157"/>
+        <item x="203"/>
+        <item x="59"/>
+        <item x="84"/>
+        <item x="173"/>
+        <item x="180"/>
+        <item x="159"/>
+        <item x="46"/>
+        <item x="213"/>
+        <item x="118"/>
+        <item x="4"/>
+        <item x="85"/>
+        <item x="1"/>
+        <item x="115"/>
+        <item x="188"/>
+        <item x="219"/>
+        <item x="163"/>
+        <item x="117"/>
+        <item x="72"/>
+        <item x="204"/>
+        <item x="179"/>
+        <item x="158"/>
+        <item x="160"/>
+        <item x="150"/>
+        <item x="114"/>
+        <item x="67"/>
+        <item x="50"/>
+        <item x="107"/>
+        <item x="210"/>
+        <item x="223"/>
+        <item x="18"/>
+        <item x="178"/>
+        <item x="48"/>
+        <item x="233"/>
+        <item x="91"/>
+        <item x="154"/>
+        <item x="197"/>
+        <item x="58"/>
+        <item x="139"/>
+        <item x="5"/>
+        <item x="174"/>
+        <item x="166"/>
+        <item x="53"/>
+        <item x="24"/>
+        <item x="201"/>
+        <item x="102"/>
+        <item x="186"/>
+        <item x="42"/>
+        <item x="124"/>
+        <item x="192"/>
+        <item x="31"/>
+        <item x="103"/>
+        <item x="211"/>
+        <item x="74"/>
+        <item x="95"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="221"/>
+        <item x="105"/>
+        <item x="168"/>
+        <item x="73"/>
+        <item x="71"/>
+        <item x="184"/>
+        <item x="86"/>
+        <item x="140"/>
+        <item x="128"/>
+        <item x="41"/>
+        <item x="190"/>
+        <item x="62"/>
+        <item x="69"/>
+        <item x="224"/>
+        <item x="202"/>
+        <item x="193"/>
+        <item x="161"/>
+        <item x="232"/>
+        <item x="145"/>
+        <item x="134"/>
+        <item x="136"/>
+        <item x="181"/>
+        <item x="0"/>
+        <item x="218"/>
+        <item x="106"/>
+        <item x="70"/>
+        <item x="97"/>
+        <item x="10"/>
+        <item x="207"/>
+        <item x="229"/>
+        <item x="22"/>
+        <item x="194"/>
+        <item x="129"/>
+        <item x="125"/>
+        <item x="35"/>
+        <item x="137"/>
+        <item x="54"/>
+        <item x="25"/>
+        <item x="220"/>
+        <item x="191"/>
+        <item x="121"/>
+        <item x="66"/>
+        <item x="138"/>
+        <item x="133"/>
+        <item x="170"/>
+        <item x="104"/>
+        <item x="164"/>
+        <item x="231"/>
+        <item x="199"/>
+        <item x="149"/>
+        <item x="132"/>
+        <item x="57"/>
+        <item x="171"/>
+        <item x="92"/>
+        <item x="126"/>
+        <item x="155"/>
+        <item x="83"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="209"/>
+        <item x="75"/>
+        <item x="93"/>
+        <item x="81"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="143"/>
+        <item x="214"/>
+        <item x="167"/>
+        <item x="109"/>
+        <item x="30"/>
+        <item x="45"/>
+        <item x="212"/>
+        <item x="119"/>
+        <item x="68"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="89"/>
+        <item x="49"/>
+        <item x="29"/>
+        <item x="146"/>
+        <item x="79"/>
+        <item x="8"/>
+        <item x="96"/>
+        <item x="156"/>
+        <item x="113"/>
+        <item x="94"/>
+        <item x="144"/>
+        <item x="205"/>
+        <item x="169"/>
+        <item x="153"/>
+        <item x="135"/>
+        <item x="99"/>
+        <item x="23"/>
+        <item x="235"/>
+        <item x="60"/>
+        <item x="130"/>
+        <item x="64"/>
+        <item x="172"/>
+        <item x="226"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="112"/>
+        <item x="36"/>
+        <item x="56"/>
+        <item x="165"/>
+        <item x="147"/>
+        <item x="116"/>
+        <item x="222"/>
+        <item x="87"/>
+        <item x="225"/>
+        <item x="189"/>
+        <item x="21"/>
+        <item x="51"/>
+        <item x="176"/>
+        <item x="122"/>
+        <item x="108"/>
+        <item x="182"/>
+        <item x="187"/>
+        <item x="6"/>
+        <item x="216"/>
+        <item x="52"/>
+        <item x="17"/>
+        <item x="90"/>
+        <item x="142"/>
+        <item x="230"/>
+        <item x="110"/>
+        <item x="120"/>
+        <item x="12"/>
+        <item x="111"/>
+        <item x="185"/>
+        <item x="16"/>
+        <item x="228"/>
+        <item x="206"/>
+        <item x="100"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="240">
+        <item x="205"/>
+        <item x="34"/>
+        <item x="202"/>
+        <item x="120"/>
+        <item x="200"/>
+        <item x="170"/>
+        <item x="219"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="107"/>
+        <item x="26"/>
+        <item x="86"/>
+        <item x="122"/>
+        <item x="149"/>
+        <item x="123"/>
+        <item x="159"/>
+        <item x="171"/>
+        <item x="9"/>
+        <item x="235"/>
+        <item x="188"/>
+        <item x="68"/>
+        <item x="106"/>
+        <item x="191"/>
+        <item x="14"/>
+        <item x="60"/>
+        <item x="31"/>
+        <item x="201"/>
+        <item x="91"/>
+        <item x="87"/>
+        <item x="121"/>
+        <item x="88"/>
+        <item x="137"/>
+        <item x="98"/>
+        <item x="79"/>
+        <item x="132"/>
+        <item x="84"/>
+        <item x="66"/>
+        <item x="12"/>
+        <item x="39"/>
+        <item x="75"/>
+        <item x="59"/>
+        <item x="203"/>
+        <item x="1"/>
+        <item x="169"/>
+        <item x="135"/>
+        <item x="30"/>
+        <item x="125"/>
+        <item x="56"/>
+        <item x="67"/>
+        <item x="76"/>
+        <item x="127"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="65"/>
+        <item x="153"/>
+        <item x="42"/>
+        <item x="164"/>
+        <item x="5"/>
+        <item x="146"/>
+        <item x="223"/>
+        <item x="181"/>
+        <item x="94"/>
+        <item x="237"/>
+        <item x="18"/>
+        <item x="161"/>
+        <item x="179"/>
+        <item x="220"/>
+        <item x="27"/>
+        <item x="166"/>
+        <item x="183"/>
+        <item x="175"/>
+        <item x="32"/>
+        <item x="109"/>
+        <item x="83"/>
+        <item x="143"/>
+        <item x="214"/>
+        <item x="113"/>
+        <item x="134"/>
+        <item x="180"/>
+        <item x="139"/>
+        <item x="144"/>
+        <item x="184"/>
+        <item x="209"/>
+        <item x="167"/>
+        <item x="152"/>
+        <item x="131"/>
+        <item x="221"/>
+        <item x="46"/>
+        <item x="163"/>
+        <item x="49"/>
+        <item x="10"/>
+        <item x="193"/>
+        <item x="47"/>
+        <item x="129"/>
+        <item x="231"/>
+        <item x="145"/>
+        <item x="230"/>
+        <item x="177"/>
+        <item x="130"/>
+        <item x="20"/>
+        <item x="136"/>
+        <item x="124"/>
+        <item x="196"/>
+        <item x="63"/>
+        <item x="208"/>
+        <item x="95"/>
+        <item x="51"/>
+        <item x="215"/>
+        <item x="187"/>
+        <item x="102"/>
+        <item x="207"/>
+        <item x="103"/>
+        <item x="210"/>
+        <item x="198"/>
+        <item x="197"/>
+        <item x="158"/>
+        <item x="228"/>
+        <item x="104"/>
+        <item x="29"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="69"/>
+        <item x="2"/>
+        <item x="80"/>
+        <item x="48"/>
+        <item x="77"/>
+        <item x="28"/>
+        <item x="168"/>
+        <item x="233"/>
+        <item x="185"/>
+        <item x="115"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="61"/>
+        <item x="93"/>
+        <item x="81"/>
+        <item x="226"/>
+        <item x="99"/>
+        <item x="151"/>
+        <item x="165"/>
+        <item x="82"/>
+        <item x="16"/>
+        <item x="225"/>
+        <item x="22"/>
+        <item x="112"/>
+        <item x="173"/>
+        <item x="24"/>
+        <item x="133"/>
+        <item x="17"/>
+        <item x="72"/>
+        <item x="211"/>
+        <item x="178"/>
+        <item x="224"/>
+        <item x="0"/>
+        <item x="78"/>
+        <item x="38"/>
+        <item x="97"/>
+        <item x="71"/>
+        <item x="54"/>
+        <item x="234"/>
+        <item x="217"/>
+        <item x="33"/>
+        <item x="155"/>
+        <item x="57"/>
+        <item x="8"/>
+        <item x="40"/>
+        <item x="172"/>
+        <item x="192"/>
+        <item x="229"/>
+        <item x="140"/>
+        <item x="50"/>
+        <item x="118"/>
+        <item x="190"/>
+        <item x="216"/>
+        <item x="147"/>
+        <item x="156"/>
+        <item x="73"/>
+        <item x="35"/>
+        <item x="58"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="154"/>
+        <item x="141"/>
+        <item x="236"/>
+        <item x="189"/>
+        <item x="227"/>
+        <item x="128"/>
+        <item x="160"/>
+        <item x="62"/>
+        <item x="157"/>
+        <item x="117"/>
+        <item x="90"/>
+        <item x="116"/>
+        <item x="44"/>
+        <item x="126"/>
+        <item x="36"/>
+        <item x="174"/>
+        <item x="64"/>
+        <item x="194"/>
+        <item x="204"/>
+        <item x="55"/>
+        <item x="96"/>
+        <item x="148"/>
+        <item x="176"/>
+        <item x="238"/>
+        <item x="222"/>
+        <item x="199"/>
+        <item x="111"/>
+        <item x="213"/>
+        <item x="25"/>
+        <item x="92"/>
+        <item x="182"/>
+        <item x="100"/>
+        <item x="110"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="162"/>
+        <item x="23"/>
+        <item x="70"/>
+        <item x="85"/>
+        <item x="108"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="218"/>
+        <item x="45"/>
+        <item x="232"/>
+        <item x="206"/>
+        <item x="6"/>
+        <item x="138"/>
+        <item x="119"/>
+        <item x="142"/>
+        <item x="212"/>
+        <item x="195"/>
+        <item x="186"/>
+        <item x="74"/>
+        <item x="7"/>
+        <item x="105"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="141">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4473,8 +9521,8 @@
   </sheetPr>
   <dimension ref="A1:AA982"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView topLeftCell="A108" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A219" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23114,8 +28162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -24752,4 +29800,732 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" s="20" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="21" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="21" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="21" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="21" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="21" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="21" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="21" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="21" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="21" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="21" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="21" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="21" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="21" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="21" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="21" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="21" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="21" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="21" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="21" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="21" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="21" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="21" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="21" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="21" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="21" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="21" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="21" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="21" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="21" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="21" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="21" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="21" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="21" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="21" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="21" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="21" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="21" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="21" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>